--- a/media/kegiatan/psm/bintek/exported/REKAPITULASI PEMBINAAN TEKNIS 2024.xlsx
+++ b/media/kegiatan/psm/bintek/exported/REKAPITULASI PEMBINAAN TEKNIS 2024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Kegiatan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data Kegiatan" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
     <col width="28.8" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="14.4" customWidth="1" min="4" max="4"/>
-    <col width="33.6" customWidth="1" min="5" max="5"/>
-    <col width="13.2" customWidth="1" min="6" max="6"/>
-    <col width="10.8" customWidth="1" min="7" max="7"/>
-    <col width="14.4" customWidth="1" min="8" max="8"/>
+    <col width="37.2" customWidth="1" min="5" max="5"/>
+    <col width="26.4" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="25.2" customWidth="1" min="8" max="8"/>
     <col width="32.4" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -517,81 +517,38 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45378</v>
+        <v>45348</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>BNN Kabupaten Aceh Selatan</t>
+          <t>BNNP Nanggroe Aceh Darussalam</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>deksripsi</t>
+          <t>Quidem officia obcae</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>kendala</t>
+          <t>Incidunt est omnis</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>kesimpulan</t>
+          <t>Quam consequatur Su</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>tindak lanjut</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>BNNP Jawa Barat</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>45379</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>BNN Kabupaten Aceh Tamiang</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
+          <t>Blanditiis et enim f</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3"/>
+  <mergeCells count="2">
     <mergeCell ref="B2"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
